--- a/data/strategies/兴业场外策略结果.xlsx
+++ b/data/strategies/兴业场外策略结果.xlsx
@@ -18,20 +18,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="196">
+  <si>
+    <t>南方中证申万有色金属ETF联接A</t>
+  </si>
   <si>
     <t>港台中证生物医药ETF联结</t>
   </si>
   <si>
+    <t>华宝中证科技龙头ETF联接A</t>
+  </si>
+  <si>
     <t>富国中证娱乐主题指数增强（LOF)</t>
   </si>
   <si>
-    <t>南方中证申万有色金属ETF联接A</t>
-  </si>
-  <si>
-    <t>华宝中证科技龙头ETF联接A</t>
-  </si>
-  <si>
     <t>景气复苏</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-1.55%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>11.67%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>17.38%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>17.68%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>22.55%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>-0.92%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>3.97%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>15.82%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>15.92%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>19.49%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -137,88 +134,88 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>004432.OF</t>
+  </si>
+  <si>
     <t>006756.OF</t>
   </si>
   <si>
+    <t>007873.OF</t>
+  </si>
+  <si>
     <t>161036.OF</t>
   </si>
   <si>
-    <t>004432.OF</t>
-  </si>
-  <si>
-    <t>007873.OF</t>
-  </si>
-  <si>
-    <t>-3.80%</t>
-  </si>
-  <si>
-    <t>-6.04%</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>2.04%</t>
-  </si>
-  <si>
-    <t>11.70%</t>
-  </si>
-  <si>
-    <t>-1.52%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>16.31%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>-3.57%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>20.40%</t>
-  </si>
-  <si>
-    <t>12.56%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>18.22%</t>
-  </si>
-  <si>
-    <t>21.72%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>20.20%</t>
-  </si>
-  <si>
-    <t>26.00%</t>
-  </si>
-  <si>
-    <t>18.02%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>24.21%</t>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>-3.94%</t>
+  </si>
+  <si>
+    <t>2.93%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>4.04%</t>
+  </si>
+  <si>
+    <t>8.58%</t>
+  </si>
+  <si>
+    <t>-10.48%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>-9.75%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>20.04%</t>
+  </si>
+  <si>
+    <t>21.73%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>22.77%</t>
+  </si>
+  <si>
+    <t>20.67%</t>
+  </si>
+  <si>
+    <t>16.51%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>25.80%</t>
+  </si>
+  <si>
+    <t>24.10%</t>
+  </si>
+  <si>
+    <t>18.08%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,307 +230,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>600276.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
     <t>002415.SZ</t>
   </si>
   <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
     <t>002027.SZ</t>
   </si>
   <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
-    <t>300142.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
+    <t>300782.SZ</t>
   </si>
   <si>
     <t>002230.SZ</t>
   </si>
   <si>
-    <t>600547.SH</t>
+    <t>000100.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002241.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>300413.SZ</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
   </si>
   <si>
     <t>603259.SH</t>
   </si>
   <si>
-    <t>601600.SH</t>
-  </si>
-  <si>
-    <t>002241.SZ</t>
+    <t>300676.SZ</t>
   </si>
   <si>
     <t>300122.SZ</t>
   </si>
   <si>
-    <t>300413.SZ</t>
-  </si>
-  <si>
-    <t>3.74%</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
+    <t>002007.SZ</t>
+  </si>
+  <si>
+    <t>393.62%</t>
+  </si>
+  <si>
+    <t>331.09%</t>
+  </si>
+  <si>
+    <t>255.62%</t>
+  </si>
+  <si>
+    <t>202.92%</t>
+  </si>
+  <si>
+    <t>168.69%</t>
+  </si>
+  <si>
+    <t>165.36%</t>
+  </si>
+  <si>
+    <t>151.83%</t>
+  </si>
+  <si>
+    <t>145.46%</t>
+  </si>
+  <si>
+    <t>129.86%</t>
+  </si>
+  <si>
+    <t>124.08%</t>
+  </si>
+  <si>
+    <t>123.65%</t>
+  </si>
+  <si>
+    <t>120.78%</t>
+  </si>
+  <si>
+    <t>109.94%</t>
+  </si>
+  <si>
+    <t>105.30%</t>
+  </si>
+  <si>
+    <t>104.21%</t>
+  </si>
+  <si>
+    <t>94.22%</t>
+  </si>
+  <si>
+    <t>93.02%</t>
+  </si>
+  <si>
+    <t>88.69%</t>
+  </si>
+  <si>
+    <t>86.19%</t>
+  </si>
+  <si>
+    <t>82.03%</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>芒果超媒</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>华大基因</t>
+  </si>
+  <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
+    <t>华兰生物</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>商品贸易-免税商品</t>
+  </si>
+  <si>
+    <t>楼宇媒体</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>教育产品和服务</t>
+  </si>
+  <si>
+    <t>半导体显示业务</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>互联网视频业务</t>
+  </si>
+  <si>
+    <t>药品制造与研发</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>软件收入</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>精准医学检测综合解决方案</t>
+  </si>
+  <si>
+    <t>代理产品-二类苗</t>
+  </si>
+  <si>
+    <t>其他疫苗</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-13.42%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>64.39%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
   </si>
   <si>
     <t>2.87%</t>
   </si>
   <si>
-    <t>2.72%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.16%</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>1.07%</t>
-  </si>
-  <si>
-    <t>1.02%</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>分众传媒</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>沃森生物</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>山东黄金</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>中国铝业</t>
-  </si>
-  <si>
-    <t>歌尔股份</t>
-  </si>
-  <si>
-    <t>智飞生物</t>
-  </si>
-  <si>
-    <t>芒果超媒</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>商品贸易-免税商品</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>楼宇媒体</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>13价肺炎球菌多糖结合疫苗(预充注射剂)</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
-  </si>
-  <si>
-    <t>教育产品和服务</t>
-  </si>
-  <si>
-    <t>外购合质金</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>贸易板块</t>
-  </si>
-  <si>
-    <t>智能声学整机</t>
-  </si>
-  <si>
-    <t>代理产品-二类苗</t>
-  </si>
-  <si>
-    <t>互联网视频业务</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>-4.33%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>69.93%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>69.88%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>48.90%</t>
-  </si>
-  <si>
-    <t>16.65%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>-3.09%</t>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-17.29%</t>
+  </si>
+  <si>
+    <t>25.89%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>-15.58%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>-8.96%</t>
+  </si>
+  <si>
+    <t>20.25%</t>
+  </si>
+  <si>
+    <t>-7.09%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -542,49 +539,73 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>有色金属</t>
+    <t>光学光电子</t>
   </si>
   <si>
     <t>医药生物</t>
   </si>
   <si>
-    <t>锂电池</t>
+    <t>半导体芯片</t>
   </si>
   <si>
     <t>电子</t>
   </si>
   <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>软件开发</t>
+  </si>
+  <si>
     <t>商业贸易</t>
   </si>
   <si>
+    <t>营销服务</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
     <t>传媒娱乐</t>
   </si>
   <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>软件开发</t>
-  </si>
-  <si>
-    <t>22.86%</t>
-  </si>
-  <si>
-    <t>19.73%</t>
-  </si>
-  <si>
-    <t>19.57%</t>
-  </si>
-  <si>
-    <t>15.94%</t>
-  </si>
-  <si>
-    <t>7.21%</t>
-  </si>
-  <si>
-    <t>7.16%</t>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>7.31%</t>
+  </si>
+  <si>
+    <t>7.26%</t>
+  </si>
+  <si>
+    <t>7.10%</t>
+  </si>
+  <si>
+    <t>4.94%</t>
   </si>
   <si>
     <t>4.08%</t>
+  </si>
+  <si>
+    <t>3.58%</t>
+  </si>
+  <si>
+    <t>2.52%</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>1.32%</t>
   </si>
 </sst>
 </file>
@@ -948,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,19 +1032,19 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.053925925925926</v>
+      </c>
+      <c r="C3">
         <v>0.9953036260375711</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>1.010160665523592</v>
+      </c>
+      <c r="E3">
         <v>1.007722007722008</v>
       </c>
-      <c r="D3">
-        <v>1.053925925925926</v>
-      </c>
-      <c r="E3">
-        <v>1.010160665523592</v>
-      </c>
       <c r="F3">
-        <v>1.021662932917469</v>
+        <v>1.014270306004842</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1037,19 +1058,19 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.065283950617284</v>
+      </c>
+      <c r="C4">
         <v>1.002129750982962</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>1.044262399187147</v>
+      </c>
+      <c r="E4">
         <v>1.002895752895753</v>
       </c>
-      <c r="D4">
-        <v>1.065283950617284</v>
-      </c>
-      <c r="E4">
-        <v>1.044262399187147</v>
-      </c>
       <c r="F4">
-        <v>1.037004631094844</v>
+        <v>1.027022519459399</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1063,19 +1084,19 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.070320987654321</v>
+      </c>
+      <c r="C5">
         <v>1.027522935779817</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>1.045659490696641</v>
+      </c>
+      <c r="E5">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D5">
-        <v>1.070320987654321</v>
-      </c>
-      <c r="E5">
-        <v>1.045659490696641</v>
-      </c>
       <c r="F5">
-        <v>1.042501202112132</v>
+        <v>1.03082513366273</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1089,19 +1110,19 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.109135802469136</v>
+      </c>
+      <c r="C6">
         <v>1.020587592835299</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>1.0528989648822</v>
+      </c>
+      <c r="E6">
         <v>0.9835907335907337</v>
       </c>
-      <c r="D6">
-        <v>1.109135802469136</v>
-      </c>
-      <c r="E6">
-        <v>1.0528989648822</v>
-      </c>
       <c r="F6">
-        <v>1.054181788718366</v>
+        <v>1.034094577697822</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1115,19 +1136,19 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.105481481481482</v>
+      </c>
+      <c r="C7">
         <v>1.034458278724334</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>1.058931860036832</v>
+      </c>
+      <c r="E7">
         <v>1.001206563706564</v>
       </c>
-      <c r="D7">
-        <v>1.105481481481482</v>
-      </c>
-      <c r="E7">
-        <v>1.058931860036832</v>
-      </c>
       <c r="F7">
-        <v>1.060319425914296</v>
+        <v>1.04363543907031</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1141,19 +1162,19 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.064395061728395</v>
+      </c>
+      <c r="C8">
         <v>1.022990388816077</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>1.067568425731885</v>
+      </c>
+      <c r="E8">
         <v>1.008445945945946</v>
       </c>
-      <c r="D8">
-        <v>1.064395061728395</v>
-      </c>
-      <c r="E8">
-        <v>1.067568425731885</v>
-      </c>
       <c r="F8">
-        <v>1.048892127771436</v>
+        <v>1.039940269246244</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1167,19 +1188,19 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.087012345679012</v>
+      </c>
+      <c r="C9">
         <v>1.035878112712975</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>1.092017527148028</v>
+      </c>
+      <c r="E9">
         <v>1.005912162162162</v>
       </c>
-      <c r="D9">
-        <v>1.087012345679012</v>
-      </c>
-      <c r="E9">
-        <v>1.092017527148028</v>
-      </c>
       <c r="F9">
-        <v>1.066184204761697</v>
+        <v>1.053208175399001</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1193,19 +1214,19 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.054716049382716</v>
+      </c>
+      <c r="C10">
         <v>1.020259938837921</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>1.088016765098114</v>
+      </c>
+      <c r="E10">
         <v>1.001568532818533</v>
       </c>
-      <c r="D10">
-        <v>1.054716049382716</v>
-      </c>
-      <c r="E10">
-        <v>1.088016765098114</v>
-      </c>
       <c r="F10">
-        <v>1.050812668960271</v>
+        <v>1.042309066310002</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1219,19 +1240,19 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.036444444444445</v>
+      </c>
+      <c r="C11">
         <v>1.012833114897335</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>1.075379437353147</v>
+      </c>
+      <c r="E11">
         <v>0.9898648648648649</v>
       </c>
-      <c r="D11">
-        <v>1.036444444444445</v>
-      </c>
-      <c r="E11">
-        <v>1.075379437353147</v>
-      </c>
       <c r="F11">
-        <v>1.037360537552779</v>
+        <v>1.029907804820046</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1245,19 +1266,19 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.045925925925926</v>
+      </c>
+      <c r="C12">
         <v>1.00802752293578</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>1.065917317584302</v>
+      </c>
+      <c r="E12">
         <v>0.990588803088803</v>
       </c>
-      <c r="D12">
-        <v>1.045925925925926</v>
-      </c>
-      <c r="E12">
-        <v>1.065917317584302</v>
-      </c>
       <c r="F12">
-        <v>1.036673045782554</v>
+        <v>1.027819106128615</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1271,19 +1292,19 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.060938271604938</v>
+      </c>
+      <c r="C13">
         <v>1.012013979903888</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>1.085921127833873</v>
+      </c>
+      <c r="E13">
         <v>1.003257722007722</v>
       </c>
-      <c r="D13">
-        <v>1.060938271604938</v>
-      </c>
-      <c r="E13">
-        <v>1.085921127833873</v>
-      </c>
       <c r="F13">
-        <v>1.051059791139782</v>
+        <v>1.041830903204227</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1297,19 +1318,19 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.025975308641975</v>
+      </c>
+      <c r="C14">
         <v>0.9958497160332024</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>1.069727567155649</v>
+      </c>
+      <c r="E14">
         <v>0.9969835907335908</v>
       </c>
-      <c r="D14">
-        <v>1.025975308641975</v>
-      </c>
-      <c r="E14">
-        <v>1.069727567155649</v>
-      </c>
       <c r="F14">
-        <v>1.030363611163571</v>
+        <v>1.025724936298229</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1323,19 +1344,19 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.05441975308642</v>
+      </c>
+      <c r="C15">
         <v>1.016164263870686</v>
       </c>
-      <c r="C15">
+      <c r="D15">
+        <v>1.081031307550645</v>
+      </c>
+      <c r="E15">
         <v>1.003137065637066</v>
       </c>
-      <c r="D15">
-        <v>1.05441975308642</v>
-      </c>
-      <c r="E15">
-        <v>1.081031307550645</v>
-      </c>
       <c r="F15">
-        <v>1.047980076026549</v>
+        <v>1.039774846034653</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1349,19 +1370,19 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.089777777777778</v>
+      </c>
+      <c r="C16">
         <v>1.045380078636959</v>
       </c>
-      <c r="C16">
+      <c r="D16">
+        <v>1.10192417603353</v>
+      </c>
+      <c r="E16">
         <v>1.012427606177606</v>
       </c>
-      <c r="D16">
-        <v>1.089777777777778</v>
-      </c>
-      <c r="E16">
-        <v>1.10192417603353</v>
-      </c>
       <c r="F16">
-        <v>1.073088951176208</v>
+        <v>1.06071292372018</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1375,19 +1396,19 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.099555555555556</v>
+      </c>
+      <c r="C17">
         <v>1.092726081258191</v>
       </c>
-      <c r="C17">
+      <c r="D17">
+        <v>1.109671683495269</v>
+      </c>
+      <c r="E17">
         <v>1.014720077220077</v>
       </c>
-      <c r="D17">
-        <v>1.099555555555556</v>
-      </c>
-      <c r="E17">
-        <v>1.109671683495269</v>
-      </c>
       <c r="F17">
-        <v>1.087310835828078</v>
+        <v>1.073737159294401</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1401,19 +1422,19 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.114567901234568</v>
+      </c>
+      <c r="C18">
         <v>1.081039755351682</v>
       </c>
-      <c r="C18">
+      <c r="D18">
+        <v>1.103194259223979</v>
+      </c>
+      <c r="E18">
         <v>1.014116795366795</v>
       </c>
-      <c r="D18">
-        <v>1.114567901234568</v>
-      </c>
-      <c r="E18">
-        <v>1.103194259223979</v>
-      </c>
       <c r="F18">
-        <v>1.088038126573462</v>
+        <v>1.071965949634618</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1427,19 +1448,19 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.095308641975309</v>
+      </c>
+      <c r="C19">
         <v>1.051660113586719</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <v>1.066933384136661</v>
+      </c>
+      <c r="E19">
         <v>1.009049227799228</v>
       </c>
-      <c r="D19">
-        <v>1.095308641975309</v>
-      </c>
-      <c r="E19">
-        <v>1.066933384136661</v>
-      </c>
       <c r="F19">
-        <v>1.063860456652561</v>
+        <v>1.050058950384388</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1453,19 +1474,19 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.088987654320988</v>
+      </c>
+      <c r="C20">
         <v>1.042103538663172</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <v>1.075315933193624</v>
+      </c>
+      <c r="E20">
         <v>1.037162162162162</v>
       </c>
-      <c r="D20">
-        <v>1.088987654320988</v>
-      </c>
-      <c r="E20">
-        <v>1.075315933193624</v>
-      </c>
       <c r="F20">
-        <v>1.067695353020129</v>
+        <v>1.059403274274717</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1479,19 +1500,19 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.051160493827161</v>
+      </c>
+      <c r="C21">
         <v>1.010594145915247</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <v>1.026735251158951</v>
+      </c>
+      <c r="E21">
         <v>1.021718146718147</v>
       </c>
-      <c r="D21">
-        <v>1.051160493827161</v>
-      </c>
-      <c r="E21">
-        <v>1.026735251158951</v>
-      </c>
       <c r="F21">
-        <v>1.031198685593094</v>
+        <v>1.026487910055652</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1505,19 +1526,19 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.039111111111111</v>
+      </c>
+      <c r="C22">
         <v>0.9966688510266491</v>
       </c>
-      <c r="C22">
+      <c r="D22">
+        <v>1.022226455832857</v>
+      </c>
+      <c r="E22">
         <v>1.020632239382239</v>
       </c>
-      <c r="D22">
-        <v>1.039111111111111</v>
-      </c>
-      <c r="E22">
-        <v>1.022226455832857</v>
-      </c>
       <c r="F22">
-        <v>1.023182582461021</v>
+        <v>1.020225962984401</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1531,19 +1552,19 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.05037037037037</v>
+      </c>
+      <c r="C23">
         <v>1.016546526867628</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <v>1.031752079761224</v>
+      </c>
+      <c r="E23">
         <v>1.034749034749035</v>
       </c>
-      <c r="D23">
-        <v>1.05037037037037</v>
-      </c>
-      <c r="E23">
-        <v>1.031752079761224</v>
-      </c>
       <c r="F23">
-        <v>1.035820654018259</v>
+        <v>1.033321240318845</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1557,19 +1578,19 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.079506172839506</v>
+      </c>
+      <c r="C24">
         <v>1.028615115771079</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <v>1.04692957388709</v>
+      </c>
+      <c r="E24">
         <v>1.038368725868726</v>
       </c>
-      <c r="D24">
-        <v>1.079506172839506</v>
-      </c>
-      <c r="E24">
-        <v>1.04692957388709</v>
-      </c>
       <c r="F24">
-        <v>1.053111049498543</v>
+        <v>1.046529057983219</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1583,19 +1604,19 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.085037037037037</v>
+      </c>
+      <c r="C25">
         <v>1.035168195718654</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <v>1.02203594335429</v>
+      </c>
+      <c r="E25">
         <v>1.041867760617761</v>
       </c>
-      <c r="D25">
-        <v>1.085037037037037</v>
-      </c>
-      <c r="E25">
-        <v>1.02203594335429</v>
-      </c>
       <c r="F25">
-        <v>1.048430196106328</v>
+        <v>1.041523111879244</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1609,19 +1630,19 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.041679012345679</v>
+      </c>
+      <c r="C26">
         <v>1.026212319790301</v>
       </c>
-      <c r="C26">
+      <c r="D26">
+        <v>1.01219279862831</v>
+      </c>
+      <c r="E26">
         <v>1.006515444015444</v>
       </c>
-      <c r="D26">
-        <v>1.041679012345679</v>
-      </c>
-      <c r="E26">
-        <v>1.01219279862831</v>
-      </c>
       <c r="F26">
-        <v>1.023341417468393</v>
+        <v>1.017715246535555</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1635,19 +1656,19 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>0.992888888888889</v>
+      </c>
+      <c r="C27">
         <v>1.042158147662735</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <v>1.005588366037975</v>
+      </c>
+      <c r="E27">
         <v>1.006756756756757</v>
       </c>
-      <c r="D27">
-        <v>0.992888888888889</v>
-      </c>
-      <c r="E27">
-        <v>1.005588366037975</v>
-      </c>
       <c r="F27">
-        <v>1.007813027877179</v>
+        <v>1.010031886736038</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1661,19 +1682,19 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.030518518518519</v>
+      </c>
+      <c r="C28">
         <v>1.051823940585408</v>
       </c>
-      <c r="C28">
+      <c r="D28">
+        <v>1.016828602273449</v>
+      </c>
+      <c r="E28">
         <v>1.021718146718147</v>
       </c>
-      <c r="D28">
-        <v>1.030518518518519</v>
-      </c>
-      <c r="E28">
-        <v>1.016828602273449</v>
-      </c>
       <c r="F28">
-        <v>1.028126704702954</v>
+        <v>1.026718645214894</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1687,19 +1708,19 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.078518518518519</v>
+      </c>
+      <c r="C29">
         <v>1.066950633464395</v>
       </c>
-      <c r="C29">
+      <c r="D29">
+        <v>1.040261637137232</v>
+      </c>
+      <c r="E29">
         <v>1.036317567567568</v>
       </c>
-      <c r="D29">
-        <v>1.078518518518519</v>
-      </c>
-      <c r="E29">
-        <v>1.040261637137232</v>
-      </c>
       <c r="F29">
-        <v>1.056753045541832</v>
+        <v>1.050000893389679</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1713,19 +1734,19 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.106172839506173</v>
+      </c>
+      <c r="C30">
         <v>1.105286151157711</v>
       </c>
-      <c r="C30">
+      <c r="D30">
+        <v>1.062297580491522</v>
+      </c>
+      <c r="E30">
         <v>1.048262548262548</v>
       </c>
-      <c r="D30">
-        <v>1.106172839506173</v>
-      </c>
-      <c r="E30">
-        <v>1.062297580491522</v>
-      </c>
       <c r="F30">
-        <v>1.081698517500683</v>
+        <v>1.072432870901703</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1739,19 +1760,19 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.177382716049383</v>
+      </c>
+      <c r="C31">
         <v>1.053134556574924</v>
       </c>
-      <c r="C31">
+      <c r="D31">
+        <v>1.041658728646726</v>
+      </c>
+      <c r="E31">
         <v>1.062017374517374</v>
       </c>
-      <c r="D31">
-        <v>1.177382716049383</v>
-      </c>
-      <c r="E31">
-        <v>1.041658728646726</v>
-      </c>
       <c r="F31">
-        <v>1.091859505035407</v>
+        <v>1.073401050390285</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1765,19 +1786,19 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.193679012345679</v>
+      </c>
+      <c r="C32">
         <v>1.045543905635649</v>
       </c>
-      <c r="C32">
+      <c r="D32">
+        <v>1.038293008192037</v>
+      </c>
+      <c r="E32">
         <v>1.075530888030888</v>
       </c>
-      <c r="D32">
-        <v>1.193679012345679</v>
-      </c>
-      <c r="E32">
-        <v>1.038293008192037</v>
-      </c>
       <c r="F32">
-        <v>1.097133481700757</v>
+        <v>1.078229781810391</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1791,19 +1812,19 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.248592592592593</v>
+      </c>
+      <c r="C33">
         <v>1.018130187854958</v>
       </c>
-      <c r="C33">
+      <c r="D33">
+        <v>1.008128532418873</v>
+      </c>
+      <c r="E33">
         <v>1.04753861003861</v>
       </c>
-      <c r="D33">
-        <v>1.248592592592593</v>
-      </c>
-      <c r="E33">
-        <v>1.008128532418873</v>
-      </c>
       <c r="F33">
-        <v>1.095881666895691</v>
+        <v>1.063713029687053</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1817,19 +1838,19 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.233283950617284</v>
+      </c>
+      <c r="C34">
         <v>1.018840104849279</v>
       </c>
-      <c r="C34">
+      <c r="D34">
+        <v>1.009017590652188</v>
+      </c>
+      <c r="E34">
         <v>1.032335907335907</v>
       </c>
-      <c r="D34">
-        <v>1.233283950617284</v>
-      </c>
-      <c r="E34">
-        <v>1.009017590652188</v>
-      </c>
       <c r="F34">
-        <v>1.088659430690408</v>
+        <v>1.056507743765387</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1843,19 +1864,19 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.182617283950617</v>
+      </c>
+      <c r="C35">
         <v>0.9934469200524246</v>
       </c>
-      <c r="C35">
+      <c r="D35">
+        <v>0.9914904426239918</v>
+      </c>
+      <c r="E35">
         <v>1.030043436293436</v>
       </c>
-      <c r="D35">
-        <v>1.182617283950617</v>
-      </c>
-      <c r="E35">
-        <v>0.9914904426239918</v>
-      </c>
       <c r="F35">
-        <v>1.061448910348417</v>
+        <v>1.037037094723269</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1869,19 +1890,19 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.170172839506173</v>
+      </c>
+      <c r="C36">
         <v>0.9901157710790738</v>
       </c>
-      <c r="C36">
+      <c r="D36">
+        <v>0.9865371181812409</v>
+      </c>
+      <c r="E36">
         <v>1.025458494208494</v>
       </c>
-      <c r="D36">
-        <v>1.170172839506173</v>
-      </c>
-      <c r="E36">
-        <v>0.9865371181812409</v>
-      </c>
       <c r="F36">
-        <v>1.054361911135733</v>
+        <v>1.031207615888105</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1895,19 +1916,19 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.12079012345679</v>
+      </c>
+      <c r="C37">
         <v>0.9837265181301879</v>
       </c>
-      <c r="C37">
+      <c r="D37">
+        <v>0.9764399568171716</v>
+      </c>
+      <c r="E37">
         <v>1.005912162162162</v>
       </c>
-      <c r="D37">
-        <v>1.12079012345679</v>
-      </c>
-      <c r="E37">
-        <v>0.9764399568171716</v>
-      </c>
       <c r="F37">
-        <v>1.030324502140107</v>
+        <v>1.011944028332966</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1921,19 +1942,19 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.159308641975309</v>
+      </c>
+      <c r="C38">
         <v>0.9968872870249017</v>
       </c>
-      <c r="C38">
+      <c r="D38">
+        <v>0.9958722296310408</v>
+      </c>
+      <c r="E38">
         <v>1.035714285714286</v>
       </c>
-      <c r="D38">
-        <v>1.159308641975309</v>
-      </c>
-      <c r="E38">
-        <v>0.9958722296310408</v>
-      </c>
       <c r="F38">
-        <v>1.056751954995757</v>
+        <v>1.036976857993994</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1947,19 +1968,19 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.122864197530864</v>
+      </c>
+      <c r="C39">
         <v>0.9799038881607689</v>
       </c>
-      <c r="C39">
+      <c r="D39">
+        <v>0.991934971740649</v>
+      </c>
+      <c r="E39">
         <v>1.02726833976834</v>
       </c>
-      <c r="D39">
-        <v>1.122864197530864</v>
-      </c>
-      <c r="E39">
-        <v>0.991934971740649</v>
-      </c>
       <c r="F39">
-        <v>1.039103004607548</v>
+        <v>1.023807667365544</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1973,19 +1994,19 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.161975308641976</v>
+      </c>
+      <c r="C40">
         <v>0.992682394058541</v>
       </c>
-      <c r="C40">
+      <c r="D40">
+        <v>1.003302216295167</v>
+      </c>
+      <c r="E40">
         <v>1.040781853281853</v>
       </c>
-      <c r="D40">
-        <v>1.161975308641976</v>
-      </c>
-      <c r="E40">
-        <v>1.003302216295167</v>
-      </c>
       <c r="F40">
-        <v>1.060230505277124</v>
+        <v>1.040839552419505</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1999,19 +2020,19 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.119012345679012</v>
+      </c>
+      <c r="C41">
         <v>0.9588248143294016</v>
       </c>
-      <c r="C41">
+      <c r="D41">
+        <v>0.9716136406934655</v>
+      </c>
+      <c r="E41">
         <v>1.02159749034749</v>
       </c>
-      <c r="D41">
-        <v>1.119012345679012</v>
-      </c>
-      <c r="E41">
-        <v>0.9716136406934655</v>
-      </c>
       <c r="F41">
-        <v>1.02657836729799</v>
+        <v>1.010991990444946</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2025,19 +2046,19 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.084641975308642</v>
+      </c>
+      <c r="C42">
         <v>0.9660878112712975</v>
       </c>
-      <c r="C42">
+      <c r="D42">
+        <v>0.9732647488410491</v>
+      </c>
+      <c r="E42">
         <v>1.024372586872587</v>
       </c>
-      <c r="D42">
-        <v>1.084641975308642</v>
-      </c>
-      <c r="E42">
-        <v>0.9732647488410491</v>
-      </c>
       <c r="F42">
-        <v>1.017487486653858</v>
+        <v>1.00784438450409</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2051,19 +2072,19 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>1.056197530864198</v>
+      </c>
+      <c r="C43">
         <v>0.935998252512014</v>
       </c>
-      <c r="C43">
+      <c r="D43">
+        <v>0.9375119070299104</v>
+      </c>
+      <c r="E43">
         <v>1.004826254826255</v>
       </c>
-      <c r="D43">
-        <v>1.056197530864198</v>
-      </c>
-      <c r="E43">
-        <v>0.9375119070299104</v>
-      </c>
       <c r="F43">
-        <v>0.9878642807525613</v>
+        <v>0.9796448765864905</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2077,19 +2098,19 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>1.04</v>
+      </c>
+      <c r="C44">
         <v>0.9020860637833115</v>
       </c>
-      <c r="C44">
+      <c r="D44">
+        <v>0.9120467390614084</v>
+      </c>
+      <c r="E44">
         <v>0.9974662162162162</v>
       </c>
-      <c r="D44">
-        <v>1.04</v>
-      </c>
-      <c r="E44">
-        <v>0.9120467390614084</v>
-      </c>
       <c r="F44">
-        <v>0.9670993114901845</v>
+        <v>0.960293906084779</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2103,19 +2124,19 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>1.039012345679012</v>
+      </c>
+      <c r="C45">
         <v>0.9068916557448669</v>
       </c>
-      <c r="C45">
+      <c r="D45">
+        <v>0.9164285260684575</v>
+      </c>
+      <c r="E45">
         <v>0.9885376447876448</v>
       </c>
-      <c r="D45">
-        <v>1.039012345679012</v>
-      </c>
-      <c r="E45">
-        <v>0.9164285260684575</v>
-      </c>
       <c r="F45">
-        <v>0.9675184687671921</v>
+        <v>0.9594425166245732</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2129,19 +2150,19 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>1.099950617283951</v>
+      </c>
+      <c r="C46">
         <v>0.922346002621232</v>
       </c>
-      <c r="C46">
+      <c r="D46">
+        <v>0.9255096208801676</v>
+      </c>
+      <c r="E46">
         <v>0.9978281853281853</v>
       </c>
-      <c r="D46">
-        <v>1.099950617283951</v>
-      </c>
-      <c r="E46">
-        <v>0.9255096208801676</v>
-      </c>
       <c r="F46">
-        <v>0.99483149054556</v>
+        <v>0.9784919014326375</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2155,19 +2176,19 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.087901234567901</v>
+      </c>
+      <c r="C47">
         <v>0.9228374836173001</v>
       </c>
-      <c r="C47">
+      <c r="D47">
+        <v>0.9188416841303106</v>
+      </c>
+      <c r="E47">
         <v>0.9980694980694982</v>
       </c>
-      <c r="D47">
-        <v>1.087901234567901</v>
-      </c>
-      <c r="E47">
-        <v>0.9188416841303106</v>
-      </c>
       <c r="F47">
-        <v>0.9887793500571656</v>
+        <v>0.9744062722174212</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2181,19 +2202,19 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>1.089876543209876</v>
+      </c>
+      <c r="C48">
         <v>0.8999017038007864</v>
       </c>
-      <c r="C48">
+      <c r="D48">
+        <v>0.8859465294976822</v>
+      </c>
+      <c r="E48">
         <v>0.9827461389961391</v>
       </c>
-      <c r="D48">
-        <v>1.089876543209876</v>
-      </c>
-      <c r="E48">
-        <v>0.8859465294976822</v>
-      </c>
       <c r="F48">
-        <v>0.9720717472689717</v>
+        <v>0.9549308825947738</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2207,19 +2228,19 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>1.068246913580247</v>
+      </c>
+      <c r="C49">
         <v>0.9131170816950633</v>
       </c>
-      <c r="C49">
+      <c r="D49">
+        <v>0.8845494379881883</v>
+      </c>
+      <c r="E49">
         <v>0.9908301158301159</v>
       </c>
-      <c r="D49">
-        <v>1.068246913580247</v>
-      </c>
-      <c r="E49">
-        <v>0.8845494379881883</v>
-      </c>
       <c r="F49">
-        <v>0.9680938195968641</v>
+        <v>0.9557071319568431</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2233,19 +2254,19 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>1.074172839506173</v>
+      </c>
+      <c r="C50">
         <v>0.9166120576671036</v>
       </c>
-      <c r="C50">
+      <c r="D50">
+        <v>0.8970597574141107</v>
+      </c>
+      <c r="E50">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D50">
-        <v>1.074172839506173</v>
-      </c>
-      <c r="E50">
-        <v>0.8970597574141107</v>
-      </c>
       <c r="F50">
-        <v>0.9758795519608463</v>
+        <v>0.9635871872151484</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2259,19 +2280,19 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>1.074271604938271</v>
+      </c>
+      <c r="C51">
         <v>0.9333224115334208</v>
       </c>
-      <c r="C51">
+      <c r="D51">
+        <v>0.9009970153045025</v>
+      </c>
+      <c r="E51">
         <v>1.005429536679537</v>
       </c>
-      <c r="D51">
-        <v>1.074271604938271</v>
-      </c>
-      <c r="E51">
-        <v>0.9009970153045025</v>
-      </c>
       <c r="F51">
-        <v>0.9814264758763183</v>
+        <v>0.9704117449549207</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2285,19 +2306,19 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>1.053037037037037</v>
+      </c>
+      <c r="C52">
         <v>0.9251856705985146</v>
       </c>
-      <c r="C52">
+      <c r="D52">
+        <v>0.8799136343430495</v>
+      </c>
+      <c r="E52">
         <v>0.9863658301158301</v>
       </c>
-      <c r="D52">
-        <v>1.053037037037037</v>
-      </c>
-      <c r="E52">
-        <v>0.8799136343430495</v>
-      </c>
       <c r="F52">
-        <v>0.9628374766768673</v>
+        <v>0.9521700835694742</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2311,19 +2332,19 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>1.056493827160494</v>
+      </c>
+      <c r="C53">
         <v>0.9340323285277413</v>
       </c>
-      <c r="C53">
+      <c r="D53">
+        <v>0.8883596875595352</v>
+      </c>
+      <c r="E53">
         <v>0.9956563706563707</v>
       </c>
-      <c r="D53">
-        <v>1.056493827160494</v>
-      </c>
-      <c r="E53">
-        <v>0.8883596875595352</v>
-      </c>
       <c r="F53">
-        <v>0.9698487387189088</v>
+        <v>0.9601147456782491</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2337,19 +2358,19 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>1.01758024691358</v>
+      </c>
+      <c r="C54">
         <v>0.9327763215377894</v>
       </c>
-      <c r="C54">
+      <c r="D54">
+        <v>0.8846764463072332</v>
+      </c>
+      <c r="E54">
         <v>0.9884169884169884</v>
       </c>
-      <c r="D54">
-        <v>1.01758024691358</v>
-      </c>
-      <c r="E54">
-        <v>0.8846764463072332</v>
-      </c>
       <c r="F54">
-        <v>0.9543475714551807</v>
+        <v>0.949681450095726</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2363,19 +2384,19 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.977283950617284</v>
+      </c>
+      <c r="C55">
         <v>0.9249672346002621</v>
       </c>
-      <c r="C55">
+      <c r="D55">
+        <v>0.8727376643170128</v>
+      </c>
+      <c r="E55">
         <v>0.9791264478764479</v>
       </c>
-      <c r="D55">
-        <v>0.977283950617284</v>
-      </c>
-      <c r="E55">
-        <v>0.8727376643170128</v>
-      </c>
       <c r="F55">
-        <v>0.9342030589493586</v>
+        <v>0.9344978585108249</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2389,19 +2410,19 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9830123456790123</v>
+      </c>
+      <c r="C56">
         <v>0.9295543905635649</v>
       </c>
-      <c r="C56">
+      <c r="D56">
+        <v>0.8809932050549311</v>
+      </c>
+      <c r="E56">
         <v>0.981418918918919</v>
       </c>
-      <c r="D56">
-        <v>0.9830123456790123</v>
-      </c>
-      <c r="E56">
-        <v>0.8809932050549311</v>
-      </c>
       <c r="F56">
-        <v>0.9399872943542236</v>
+        <v>0.9397323460726087</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2415,19 +2436,19 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>1.015012345679013</v>
+      </c>
+      <c r="C57">
         <v>0.9548383573612932</v>
       </c>
-      <c r="C57">
+      <c r="D57">
+        <v>0.9072204229377024</v>
+      </c>
+      <c r="E57">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D57">
-        <v>1.015012345679013</v>
-      </c>
-      <c r="E57">
-        <v>0.9072204229377024</v>
-      </c>
       <c r="F57">
-        <v>0.966208079568681</v>
+        <v>0.9633813938353286</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2441,19 +2462,19 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>1.011950617283951</v>
+      </c>
+      <c r="C58">
         <v>0.9541830493665356</v>
       </c>
-      <c r="C58">
+      <c r="D58">
+        <v>0.9053152981520289</v>
+      </c>
+      <c r="E58">
         <v>0.9971042471042472</v>
       </c>
-      <c r="D58">
-        <v>1.011950617283951</v>
-      </c>
-      <c r="E58">
-        <v>0.9053152981520289</v>
-      </c>
       <c r="F58">
-        <v>0.9644165924939063</v>
+        <v>0.9620411732651538</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2467,19 +2488,19 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>1.025185185185185</v>
+      </c>
+      <c r="C59">
         <v>0.959480122324159</v>
       </c>
-      <c r="C59">
+      <c r="D59">
+        <v>0.9175080967803392</v>
+      </c>
+      <c r="E59">
         <v>0.9954150579150579</v>
       </c>
-      <c r="D59">
-        <v>1.025185185185185</v>
-      </c>
-      <c r="E59">
-        <v>0.9175080967803392</v>
-      </c>
       <c r="F59">
-        <v>0.9734209636892901</v>
+        <v>0.9686577433260697</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2493,19 +2514,19 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>1.002074074074074</v>
+      </c>
+      <c r="C60">
         <v>0.955166011358672</v>
       </c>
-      <c r="C60">
+      <c r="D60">
+        <v>0.9141423763256493</v>
+      </c>
+      <c r="E60">
         <v>0.9913127413127414</v>
       </c>
-      <c r="D60">
-        <v>1.002074074074074</v>
-      </c>
-      <c r="E60">
-        <v>0.9141423763256493</v>
-      </c>
       <c r="F60">
-        <v>0.963252816586049</v>
+        <v>0.9615310033442359</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2519,19 +2540,19 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>1.010469135802469</v>
+      </c>
+      <c r="C61">
         <v>0.9627020532983835</v>
       </c>
-      <c r="C61">
+      <c r="D61">
+        <v>0.929954912046739</v>
+      </c>
+      <c r="E61">
         <v>1.00132722007722</v>
       </c>
-      <c r="D61">
-        <v>1.010469135802469</v>
-      </c>
-      <c r="E61">
-        <v>0.929954912046739</v>
-      </c>
       <c r="F61">
-        <v>0.9742249122640914</v>
+        <v>0.9727622057480515</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2545,19 +2566,19 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.018666666666667</v>
+      </c>
+      <c r="C62">
         <v>0.9664700742682395</v>
       </c>
-      <c r="C62">
+      <c r="D62">
+        <v>0.9385914777417921</v>
+      </c>
+      <c r="E62">
         <v>1.011703667953668</v>
       </c>
-      <c r="D62">
-        <v>1.018666666666667</v>
-      </c>
-      <c r="E62">
-        <v>0.9385914777417921</v>
-      </c>
       <c r="F62">
-        <v>0.9821847238325159</v>
+        <v>0.9810706440384359</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2571,19 +2592,19 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.024</v>
+      </c>
+      <c r="C63">
         <v>0.9651048492791613</v>
       </c>
-      <c r="C63">
+      <c r="D63">
+        <v>0.9338286657776084</v>
+      </c>
+      <c r="E63">
         <v>1.008566602316602</v>
       </c>
-      <c r="D63">
-        <v>1.024</v>
-      </c>
-      <c r="E63">
-        <v>0.9338286657776084</v>
-      </c>
       <c r="F63">
-        <v>0.9816076064778907</v>
+        <v>0.979138262848547</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2597,19 +2618,19 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>1.035654320987654</v>
+      </c>
+      <c r="C64">
         <v>0.9670161642638707</v>
       </c>
-      <c r="C64">
+      <c r="D64">
+        <v>0.9317330285133677</v>
+      </c>
+      <c r="E64">
         <v>1.008204633204633</v>
       </c>
-      <c r="D64">
-        <v>1.035654320987654</v>
-      </c>
-      <c r="E64">
-        <v>0.9317330285133677</v>
-      </c>
       <c r="F64">
-        <v>0.9850253609049829</v>
+        <v>0.9806334108596996</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2623,19 +2644,19 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>1.048098765432099</v>
+      </c>
+      <c r="C65">
         <v>0.9815421581476629</v>
       </c>
-      <c r="C65">
+      <c r="D65">
+        <v>0.937448402870388</v>
+      </c>
+      <c r="E65">
         <v>1.003137065637066</v>
       </c>
-      <c r="D65">
-        <v>1.048098765432099</v>
-      </c>
-      <c r="E65">
-        <v>0.937448402870388</v>
-      </c>
       <c r="F65">
-        <v>0.9926260335832245</v>
+        <v>0.9854321616160192</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2649,19 +2670,19 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>1.045728395061728</v>
+      </c>
+      <c r="C66">
         <v>0.9760812581913501</v>
       </c>
-      <c r="C66">
+      <c r="D66">
+        <v>0.9271607290277513</v>
+      </c>
+      <c r="E66">
         <v>1.005550193050193</v>
       </c>
-      <c r="D66">
-        <v>1.045728395061728</v>
-      </c>
-      <c r="E66">
-        <v>0.9271607290277513</v>
-      </c>
       <c r="F66">
-        <v>0.9879307576605907</v>
+        <v>0.981502245338745</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2675,19 +2696,19 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>1.004543209876543</v>
+      </c>
+      <c r="C67">
         <v>0.9552206203582351</v>
       </c>
-      <c r="C67">
+      <c r="D67">
+        <v>0.9088715310852861</v>
+      </c>
+      <c r="E67">
         <v>0.9847972972972974</v>
       </c>
-      <c r="D67">
-        <v>1.004543209876543</v>
-      </c>
-      <c r="E67">
-        <v>0.9088715310852861</v>
-      </c>
       <c r="F67">
-        <v>0.9612299105188442</v>
+        <v>0.9580705645061649</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2701,19 +2722,19 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9978271604938271</v>
+      </c>
+      <c r="C68">
         <v>0.9660878112712975</v>
       </c>
-      <c r="C68">
+      <c r="D68">
+        <v>0.9131898139328126</v>
+      </c>
+      <c r="E68">
         <v>0.9634411196911197</v>
       </c>
-      <c r="D68">
-        <v>0.9978271604938271</v>
-      </c>
-      <c r="E68">
-        <v>0.9131898139328126</v>
-      </c>
       <c r="F68">
-        <v>0.958655519824402</v>
+        <v>0.9531537532959689</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2727,19 +2748,19 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>1.020246913580247</v>
+      </c>
+      <c r="C69">
         <v>0.969309742245522</v>
       </c>
-      <c r="C69">
+      <c r="D69">
+        <v>0.9218898837873881</v>
+      </c>
+      <c r="E69">
         <v>0.9873310810810811</v>
       </c>
-      <c r="D69">
-        <v>1.020246913580247</v>
-      </c>
-      <c r="E69">
-        <v>0.9218898837873881</v>
-      </c>
       <c r="F69">
-        <v>0.9735340830968421</v>
+        <v>0.9682675498969756</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2753,19 +2774,19 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>1.035358024691358</v>
+      </c>
+      <c r="C70">
         <v>0.9730231542158149</v>
       </c>
-      <c r="C70">
+      <c r="D70">
+        <v>0.9147774179208737</v>
+      </c>
+      <c r="E70">
         <v>0.974903474903475</v>
       </c>
-      <c r="D70">
-        <v>1.035358024691358</v>
-      </c>
-      <c r="E70">
-        <v>0.9147774179208737</v>
-      </c>
       <c r="F70">
-        <v>0.9746922230123158</v>
+        <v>0.9650194950462545</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2779,19 +2800,19 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>1.029827160493827</v>
+      </c>
+      <c r="C71">
         <v>0.969692005242464</v>
       </c>
-      <c r="C71">
+      <c r="D71">
+        <v>0.9149044262399187</v>
+      </c>
+      <c r="E71">
         <v>0.9832287644787645</v>
       </c>
-      <c r="D71">
-        <v>1.029827160493827</v>
-      </c>
-      <c r="E71">
-        <v>0.9149044262399187</v>
-      </c>
       <c r="F71">
-        <v>0.973757954474745</v>
+        <v>0.9663022111123351</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2805,19 +2826,19 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="C72">
         <v>0.9888597640891219</v>
       </c>
-      <c r="C72">
+      <c r="D72">
+        <v>0.949895218136788</v>
+      </c>
+      <c r="E72">
         <v>0.9961389961389961</v>
       </c>
-      <c r="D72">
-        <v>1.066666666666667</v>
-      </c>
-      <c r="E72">
-        <v>0.949895218136788</v>
-      </c>
       <c r="F72">
-        <v>1.00291521122392</v>
+        <v>0.9916307839394929</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2831,19 +2852,19 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.057086419753086</v>
+      </c>
+      <c r="C73">
         <v>0.9923547400611621</v>
       </c>
-      <c r="C73">
+      <c r="D73">
+        <v>0.9451959103321267</v>
+      </c>
+      <c r="E73">
         <v>0.9998793436293436</v>
       </c>
-      <c r="D73">
-        <v>1.057086419753086</v>
-      </c>
-      <c r="E73">
-        <v>0.9451959103321267</v>
-      </c>
       <c r="F73">
-        <v>0.9994329631555064</v>
+        <v>0.9902798309757075</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2857,19 +2878,19 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.049876543209876</v>
+      </c>
+      <c r="C74">
         <v>1.011686325906509</v>
       </c>
-      <c r="C74">
+      <c r="D74">
+        <v>0.9523083761986411</v>
+      </c>
+      <c r="E74">
         <v>1.004826254826255</v>
       </c>
-      <c r="D74">
-        <v>1.049876543209876</v>
-      </c>
-      <c r="E74">
-        <v>0.9523083761986411</v>
-      </c>
       <c r="F74">
-        <v>1.003528162129381</v>
+        <v>0.9963201159880013</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2883,19 +2904,19 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.054024691358025</v>
+      </c>
+      <c r="C75">
         <v>1.017365661861075</v>
       </c>
-      <c r="C75">
+      <c r="D75">
+        <v>0.9584047755127961</v>
+      </c>
+      <c r="E75">
         <v>1.007239382239382</v>
       </c>
-      <c r="D75">
-        <v>1.054024691358025</v>
-      </c>
-      <c r="E75">
-        <v>0.9584047755127961</v>
-      </c>
       <c r="F75">
-        <v>1.008284581564449</v>
+        <v>1.000798932105466</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2909,19 +2930,19 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.065086419753086</v>
+      </c>
+      <c r="C76">
         <v>1.024737876802097</v>
       </c>
-      <c r="C76">
+      <c r="D76">
+        <v>0.9651997205816981</v>
+      </c>
+      <c r="E76">
         <v>1.003378378378379</v>
       </c>
-      <c r="D76">
-        <v>1.065086419753086</v>
-      </c>
-      <c r="E76">
-        <v>0.9651997205816981</v>
-      </c>
       <c r="F76">
-        <v>1.01477418969116</v>
+        <v>1.004900903071206</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2935,19 +2956,19 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.072987654320988</v>
+      </c>
+      <c r="C77">
         <v>1.033366098733071</v>
       </c>
-      <c r="C77">
+      <c r="D77">
+        <v>0.961643487648441</v>
+      </c>
+      <c r="E77">
         <v>1.007239382239382</v>
       </c>
-      <c r="D77">
-        <v>1.072987654320988</v>
-      </c>
-      <c r="E77">
-        <v>0.961643487648441</v>
-      </c>
       <c r="F77">
-        <v>1.018331208615229</v>
+        <v>1.007811485082172</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2961,19 +2982,19 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.075259259259259</v>
+      </c>
+      <c r="C78">
         <v>1.052588466579292</v>
       </c>
-      <c r="C78">
+      <c r="D78">
+        <v>0.9658982663364449</v>
+      </c>
+      <c r="E78">
         <v>1.008204633204633</v>
       </c>
-      <c r="D78">
-        <v>1.075259259259259</v>
-      </c>
-      <c r="E78">
-        <v>0.9658982663364449</v>
-      </c>
       <c r="F78">
-        <v>1.02391681040985</v>
+        <v>1.01318807024111</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2987,19 +3008,19 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.075654320987654</v>
+      </c>
+      <c r="C79">
         <v>1.068643512450852</v>
       </c>
-      <c r="C79">
+      <c r="D79">
+        <v>0.9707880866196735</v>
+      </c>
+      <c r="E79">
         <v>1.016167953667954</v>
       </c>
-      <c r="D79">
-        <v>1.075654320987654</v>
-      </c>
-      <c r="E79">
-        <v>0.9707880866196735</v>
-      </c>
       <c r="F79">
-        <v>1.029743943750615</v>
+        <v>1.020226124979463</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3013,19 +3034,19 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.085530864197531</v>
+      </c>
+      <c r="C80">
         <v>1.059141546526868</v>
       </c>
-      <c r="C80">
+      <c r="D80">
+        <v>0.9716771448529878</v>
+      </c>
+      <c r="E80">
         <v>1.009773166023166</v>
       </c>
-      <c r="D80">
-        <v>1.085530864197531</v>
-      </c>
-      <c r="E80">
-        <v>0.9716771448529878</v>
-      </c>
       <c r="F80">
-        <v>1.030594144120177</v>
+        <v>1.018472912412279</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3039,19 +3060,19 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.083358024691358</v>
+      </c>
+      <c r="C81">
         <v>1.079838357361293</v>
       </c>
-      <c r="C81">
+      <c r="D81">
+        <v>0.9751698736267226</v>
+      </c>
+      <c r="E81">
         <v>1.005550193050193</v>
       </c>
-      <c r="D81">
-        <v>1.083358024691358</v>
-      </c>
-      <c r="E81">
-        <v>0.9751698736267226</v>
-      </c>
       <c r="F81">
-        <v>1.033830260014919</v>
+        <v>1.021381006952333</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3065,19 +3086,19 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.109135802469136</v>
+      </c>
+      <c r="C82">
         <v>1.045871559633027</v>
       </c>
-      <c r="C82">
+      <c r="D82">
+        <v>0.9519908554010288</v>
+      </c>
+      <c r="E82">
         <v>0.9810569498069499</v>
       </c>
-      <c r="D82">
-        <v>1.109135802469136</v>
-      </c>
-      <c r="E82">
-        <v>0.9519908554010288</v>
-      </c>
       <c r="F82">
-        <v>1.024749643701951</v>
+        <v>1.004257027276001</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3091,19 +3112,19 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.136987654320988</v>
+      </c>
+      <c r="C83">
         <v>1.011031017911752</v>
       </c>
-      <c r="C83">
+      <c r="D83">
+        <v>0.9203657839588494</v>
+      </c>
+      <c r="E83">
         <v>0.9666988416988418</v>
       </c>
-      <c r="D83">
-        <v>1.136987654320988</v>
-      </c>
-      <c r="E83">
-        <v>0.9203657839588494</v>
-      </c>
       <c r="F83">
-        <v>1.015140710766147</v>
+        <v>0.9878945007466038</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3117,19 +3138,19 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.191012345679012</v>
+      </c>
+      <c r="C84">
         <v>1.027359108781127</v>
       </c>
-      <c r="C84">
+      <c r="D84">
+        <v>0.9208738172350288</v>
+      </c>
+      <c r="E84">
         <v>0.9660955598455598</v>
       </c>
-      <c r="D84">
-        <v>1.191012345679012</v>
-      </c>
-      <c r="E84">
-        <v>0.9208738172350288</v>
-      </c>
       <c r="F84">
-        <v>1.03580972742817</v>
+        <v>0.9998230416948179</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3143,19 +3164,19 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.144296296296296</v>
+      </c>
+      <c r="C85">
         <v>1.035113586719091</v>
       </c>
-      <c r="C85">
+      <c r="D85">
+        <v>0.9331301200228616</v>
+      </c>
+      <c r="E85">
         <v>0.964165057915058</v>
       </c>
-      <c r="D85">
-        <v>1.144296296296296</v>
-      </c>
-      <c r="E85">
-        <v>0.9331301200228616</v>
-      </c>
       <c r="F85">
-        <v>1.025428086973128</v>
+        <v>0.9966070888321295</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3169,19 +3190,19 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.149432098765432</v>
+      </c>
+      <c r="C86">
         <v>1.054499781564002</v>
       </c>
-      <c r="C86">
+      <c r="D86">
+        <v>0.9377024195084778</v>
+      </c>
+      <c r="E86">
         <v>0.9740588803088803</v>
       </c>
-      <c r="D86">
-        <v>1.149432098765432</v>
-      </c>
-      <c r="E86">
-        <v>0.9377024195084778</v>
-      </c>
       <c r="F86">
-        <v>1.03360936354878</v>
+        <v>1.005549648595732</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3195,19 +3216,19 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.095111111111111</v>
+      </c>
+      <c r="C87">
         <v>1.065093927479249</v>
       </c>
-      <c r="C87">
+      <c r="D87">
+        <v>0.929954912046739</v>
+      </c>
+      <c r="E87">
         <v>0.9670608108108109</v>
       </c>
-      <c r="D87">
-        <v>1.095111111111111</v>
-      </c>
-      <c r="E87">
-        <v>0.929954912046739</v>
-      </c>
       <c r="F87">
-        <v>1.013738093151401</v>
+        <v>0.9932500451033527</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3221,19 +3242,19 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.100246913580247</v>
+      </c>
+      <c r="C88">
         <v>1.085626911314985</v>
       </c>
-      <c r="C88">
+      <c r="D88">
+        <v>0.9489426557439512</v>
+      </c>
+      <c r="E88">
         <v>0.9781611969111969</v>
       </c>
-      <c r="D88">
-        <v>1.100246913580247</v>
-      </c>
-      <c r="E88">
-        <v>0.9489426557439512</v>
-      </c>
       <c r="F88">
-        <v>1.027076536275436</v>
+        <v>1.007542821608388</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3247,19 +3268,19 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.13037037037037</v>
+      </c>
+      <c r="C89">
         <v>1.096657929226737</v>
       </c>
-      <c r="C89">
+      <c r="D89">
+        <v>0.9645011748269511</v>
+      </c>
+      <c r="E89">
         <v>0.9915540540540541</v>
       </c>
-      <c r="D89">
-        <v>1.13037037037037</v>
-      </c>
-      <c r="E89">
-        <v>0.9645011748269511</v>
-      </c>
       <c r="F89">
-        <v>1.046303647072851</v>
+        <v>1.02409303646224</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3273,19 +3294,19 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.144098765432099</v>
+      </c>
+      <c r="C90">
         <v>1.080439056356488</v>
       </c>
-      <c r="C90">
+      <c r="D90">
+        <v>0.9595478503842001</v>
+      </c>
+      <c r="E90">
         <v>0.9960183397683398</v>
       </c>
-      <c r="D90">
-        <v>1.144098765432099</v>
-      </c>
-      <c r="E90">
-        <v>0.9595478503842001</v>
-      </c>
       <c r="F90">
-        <v>1.047201140560599</v>
+        <v>1.023508272454398</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3299,19 +3320,19 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.150123456790124</v>
+      </c>
+      <c r="C91">
         <v>1.079729139362167</v>
       </c>
-      <c r="C91">
+      <c r="D91">
+        <v>0.963358099955547</v>
+      </c>
+      <c r="E91">
         <v>0.9928812741312741</v>
       </c>
-      <c r="D91">
-        <v>1.150123456790124</v>
-      </c>
-      <c r="E91">
-        <v>0.963358099955547</v>
-      </c>
       <c r="F91">
-        <v>1.049792684019956</v>
+        <v>1.02463393479454</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3325,19 +3346,19 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.117037037037037</v>
+      </c>
+      <c r="C92">
         <v>1.081422018348624</v>
       </c>
-      <c r="C92">
+      <c r="D92">
+        <v>0.9676763828030737</v>
+      </c>
+      <c r="E92">
         <v>0.9995173745173745</v>
       </c>
-      <c r="D92">
-        <v>1.117037037037037</v>
-      </c>
-      <c r="E92">
-        <v>0.9676763828030737</v>
-      </c>
       <c r="F92">
-        <v>1.041715125334456</v>
+        <v>1.02291197933131</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3351,19 +3372,19 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.123061728395062</v>
+      </c>
+      <c r="C93">
         <v>1.055537352555701</v>
       </c>
-      <c r="C93">
+      <c r="D93">
+        <v>0.9571346923223472</v>
+      </c>
+      <c r="E93">
         <v>0.9923986486486487</v>
       </c>
-      <c r="D93">
-        <v>1.123061728395062</v>
-      </c>
-      <c r="E93">
-        <v>0.9571346923223472</v>
-      </c>
       <c r="F93">
-        <v>1.034613939041484</v>
+        <v>1.013707846282058</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3377,19 +3398,19 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.115358024691358</v>
+      </c>
+      <c r="C94">
         <v>1.050240279598078</v>
       </c>
-      <c r="C94">
+      <c r="D94">
+        <v>0.9643741665079062</v>
+      </c>
+      <c r="E94">
         <v>1.00132722007722</v>
       </c>
-      <c r="D94">
-        <v>1.115358024691358</v>
-      </c>
-      <c r="E94">
-        <v>0.9643741665079062</v>
-      </c>
       <c r="F94">
-        <v>1.035078098040558</v>
+        <v>1.016833169302296</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3403,19 +3424,19 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.124345679012346</v>
+      </c>
+      <c r="C95">
         <v>1.074923547400612</v>
       </c>
-      <c r="C95">
+      <c r="D95">
+        <v>0.9915539467835143</v>
+      </c>
+      <c r="E95">
         <v>1.022321428571429</v>
       </c>
-      <c r="D95">
-        <v>1.124345679012346</v>
-      </c>
-      <c r="E95">
-        <v>0.9915539467835143</v>
-      </c>
       <c r="F95">
-        <v>1.054778522427881</v>
+        <v>1.038454642357334</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3429,19 +3450,19 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.134123456790123</v>
+      </c>
+      <c r="C96">
         <v>1.074159021406728</v>
       </c>
-      <c r="C96">
+      <c r="D96">
+        <v>0.9855845557884042</v>
+      </c>
+      <c r="E96">
         <v>1.01761583011583</v>
       </c>
-      <c r="D96">
-        <v>1.134123456790123</v>
-      </c>
-      <c r="E96">
-        <v>0.9855845557884042</v>
-      </c>
       <c r="F96">
-        <v>1.055105368909749</v>
+        <v>1.036464148641862</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3455,19 +3476,19 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.134320987654321</v>
+      </c>
+      <c r="C97">
         <v>1.074049803407602</v>
       </c>
-      <c r="C97">
+      <c r="D97">
+        <v>0.9947926589191592</v>
+      </c>
+      <c r="E97">
         <v>1.026303088803089</v>
       </c>
-      <c r="D97">
-        <v>1.134320987654321</v>
-      </c>
-      <c r="E97">
-        <v>0.9947926589191592</v>
-      </c>
       <c r="F97">
-        <v>1.059667495045066</v>
+        <v>1.042384631228869</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3481,19 +3502,19 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.150913580246914</v>
+      </c>
+      <c r="C98">
         <v>1.055100480559196</v>
       </c>
-      <c r="C98">
+      <c r="D98">
+        <v>0.9874896805740776</v>
+      </c>
+      <c r="E98">
         <v>1.016529922779923</v>
       </c>
-      <c r="D98">
-        <v>1.150913580246914</v>
-      </c>
-      <c r="E98">
-        <v>0.9874896805740776</v>
-      </c>
       <c r="F98">
-        <v>1.057850244638577</v>
+        <v>1.036348859443859</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3507,19 +3528,19 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.181432098765432</v>
+      </c>
+      <c r="C99">
         <v>1.079128440366973</v>
       </c>
-      <c r="C99">
+      <c r="D99">
+        <v>0.9957452213119959</v>
+      </c>
+      <c r="E99">
         <v>1.013030888030888</v>
       </c>
-      <c r="D99">
-        <v>1.181432098765432</v>
-      </c>
-      <c r="E99">
-        <v>0.9957452213119959</v>
-      </c>
       <c r="F99">
-        <v>1.074135601453188</v>
+        <v>1.047191407735661</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3533,19 +3554,19 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.183111111111111</v>
+      </c>
+      <c r="C100">
         <v>1.086719091306247</v>
       </c>
-      <c r="C100">
+      <c r="D100">
+        <v>0.9998729916809551</v>
+      </c>
+      <c r="E100">
         <v>1.016409266409267</v>
       </c>
-      <c r="D100">
-        <v>1.183111111111111</v>
-      </c>
-      <c r="E100">
-        <v>0.9998729916809551</v>
-      </c>
       <c r="F100">
-        <v>1.077916574733019</v>
+        <v>1.051244279580724</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3559,19 +3580,19 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.166716049382716</v>
+      </c>
+      <c r="C101">
         <v>1.065093927479249</v>
       </c>
-      <c r="C101">
+      <c r="D101">
+        <v>0.982599860290849</v>
+      </c>
+      <c r="E101">
         <v>1.003619691119691</v>
       </c>
-      <c r="D101">
-        <v>1.166716049382716</v>
-      </c>
-      <c r="E101">
-        <v>0.982599860290849</v>
-      </c>
       <c r="F101">
-        <v>1.060955565354096</v>
+        <v>1.034860148032012</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3585,19 +3606,19 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C102">
         <v>1.043141109654871</v>
       </c>
-      <c r="C102">
+      <c r="D102">
+        <v>0.9737092779577063</v>
+      </c>
+      <c r="E102">
         <v>1.005188223938224</v>
       </c>
-      <c r="D102">
-        <v>1.167012345679012</v>
-      </c>
-      <c r="E102">
-        <v>0.9737092779577063</v>
-      </c>
       <c r="F102">
-        <v>1.054654122510943</v>
+        <v>1.028762263032417</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3611,19 +3632,19 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.163654320987654</v>
+      </c>
+      <c r="C103">
         <v>1.049858016601136</v>
       </c>
-      <c r="C103">
+      <c r="D103">
+        <v>0.9787261065599796</v>
+      </c>
+      <c r="E103">
         <v>1.010014478764479</v>
       </c>
-      <c r="D103">
-        <v>1.163654320987654</v>
-      </c>
-      <c r="E103">
-        <v>0.9787261065599796</v>
-      </c>
       <c r="F103">
-        <v>1.057163865302874</v>
+        <v>1.032581490547166</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3637,19 +3658,19 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.158617283950617</v>
+      </c>
+      <c r="C104">
         <v>1.062636522498908</v>
       </c>
-      <c r="C104">
+      <c r="D104">
+        <v>0.9841239601193879</v>
+      </c>
+      <c r="E104">
         <v>1.017133204633205</v>
       </c>
-      <c r="D104">
-        <v>1.158617283950617</v>
-      </c>
-      <c r="E104">
-        <v>0.9841239601193879</v>
-      </c>
       <c r="F104">
-        <v>1.060665464155561</v>
+        <v>1.038028011464775</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3663,19 +3684,19 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="C105">
         <v>1.052042376583661</v>
       </c>
-      <c r="C105">
+      <c r="D105">
+        <v>0.9789801231980695</v>
+      </c>
+      <c r="E105">
         <v>1.021838803088803</v>
       </c>
-      <c r="D105">
-        <v>1.133333333333333</v>
-      </c>
-      <c r="E105">
-        <v>0.9789801231980695</v>
-      </c>
       <c r="F105">
-        <v>1.049623241199682</v>
+        <v>1.031784116360557</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3689,19 +3710,19 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.13679012345679</v>
+      </c>
+      <c r="C106">
         <v>1.047400611620795</v>
       </c>
-      <c r="C106">
+      <c r="D106">
+        <v>0.9829173810884614</v>
+      </c>
+      <c r="E106">
         <v>1.009893822393822</v>
       </c>
-      <c r="D106">
-        <v>1.13679012345679</v>
-      </c>
-      <c r="E106">
-        <v>0.9829173810884614</v>
-      </c>
       <c r="F106">
-        <v>1.049243530282418</v>
+        <v>1.028940122112343</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3715,19 +3736,19 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.141728395061728</v>
+      </c>
+      <c r="C107">
         <v>1.051441677588467</v>
       </c>
-      <c r="C107">
+      <c r="D107">
+        <v>0.9962532545881755</v>
+      </c>
+      <c r="E107">
         <v>1.010014478764479</v>
       </c>
-      <c r="D107">
-        <v>1.141728395061728</v>
-      </c>
-      <c r="E107">
-        <v>0.9962532545881755</v>
-      </c>
       <c r="F107">
-        <v>1.055981490964469</v>
+        <v>1.034907264356909</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3741,19 +3762,19 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.142617283950617</v>
+      </c>
+      <c r="C108">
         <v>1.04521625163827</v>
       </c>
-      <c r="C108">
+      <c r="D108">
+        <v>0.9918079634216042</v>
+      </c>
+      <c r="E108">
         <v>0.9956563706563707</v>
       </c>
-      <c r="D108">
-        <v>1.142617283950617</v>
-      </c>
-      <c r="E108">
-        <v>0.9918079634216042</v>
-      </c>
       <c r="F108">
-        <v>1.051308677422922</v>
+        <v>1.027794931295843</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3767,19 +3788,19 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.103506172839506</v>
+      </c>
+      <c r="C109">
         <v>1.024847094801223</v>
       </c>
-      <c r="C109">
+      <c r="D109">
+        <v>0.9866641265002858</v>
+      </c>
+      <c r="E109">
         <v>0.9873310810810811</v>
       </c>
-      <c r="D109">
-        <v>1.103506172839506</v>
-      </c>
-      <c r="E109">
-        <v>0.9866641265002858</v>
-      </c>
       <c r="F109">
-        <v>1.031826488682123</v>
+        <v>1.013238474000775</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3793,19 +3814,19 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.05679012345679</v>
+      </c>
+      <c r="C110">
         <v>1.003713411970293</v>
       </c>
-      <c r="C110">
+      <c r="D110">
+        <v>0.9594843462246777</v>
+      </c>
+      <c r="E110">
         <v>0.9738175675675677</v>
       </c>
-      <c r="D110">
-        <v>1.05679012345679</v>
-      </c>
-      <c r="E110">
-        <v>0.9594843462246777</v>
-      </c>
       <c r="F110">
-        <v>1.001550841516321</v>
+        <v>0.9882752325740451</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3819,19 +3840,19 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.061037037037037</v>
+      </c>
+      <c r="C111">
         <v>1.002184359982525</v>
       </c>
-      <c r="C111">
+      <c r="D111">
+        <v>0.9847590017146123</v>
+      </c>
+      <c r="E111">
         <v>0.9653716216216217</v>
       </c>
-      <c r="D111">
-        <v>1.061037037037037</v>
-      </c>
-      <c r="E111">
-        <v>0.9847590017146123</v>
-      </c>
       <c r="F111">
-        <v>1.00959720966075</v>
+        <v>0.9942907431942829</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3845,19 +3866,19 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.078617283950617</v>
+      </c>
+      <c r="C112">
         <v>1.009829619921363</v>
       </c>
-      <c r="C112">
+      <c r="D112">
+        <v>0.9961262462691306</v>
+      </c>
+      <c r="E112">
         <v>0.9657335907335908</v>
       </c>
-      <c r="D112">
-        <v>1.078617283950617</v>
-      </c>
-      <c r="E112">
-        <v>0.9961262462691306</v>
-      </c>
       <c r="F112">
-        <v>1.020511110783859</v>
+        <v>1.002449719869135</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3871,19 +3892,19 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.07358024691358</v>
+      </c>
+      <c r="C113">
         <v>1.022826561817388</v>
       </c>
-      <c r="C113">
+      <c r="D113">
+        <v>0.9971423128214898</v>
+      </c>
+      <c r="E113">
         <v>0.9734555984555985</v>
       </c>
-      <c r="D113">
-        <v>1.07358024691358</v>
-      </c>
-      <c r="E113">
-        <v>0.9971423128214898</v>
-      </c>
       <c r="F113">
-        <v>1.022706411958981</v>
+        <v>1.006686468205704</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3897,19 +3918,19 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.079407407407407</v>
+      </c>
+      <c r="C114">
         <v>1.030034949759721</v>
       </c>
-      <c r="C114">
+      <c r="D114">
+        <v>1.003873753730869</v>
+      </c>
+      <c r="E114">
         <v>0.9679054054054055</v>
       </c>
-      <c r="D114">
-        <v>1.079407407407407</v>
-      </c>
-      <c r="E114">
-        <v>1.003873753730869</v>
-      </c>
       <c r="F114">
-        <v>1.027132643553703</v>
+        <v>1.009292323233383</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3923,19 +3944,19 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.096691358024692</v>
+      </c>
+      <c r="C115">
         <v>1.032219309742246</v>
       </c>
-      <c r="C115">
+      <c r="D115">
+        <v>1.019368768654347</v>
+      </c>
+      <c r="E115">
         <v>0.9787644787644788</v>
       </c>
-      <c r="D115">
-        <v>1.096691358024692</v>
-      </c>
-      <c r="E115">
-        <v>1.019368768654347</v>
-      </c>
       <c r="F115">
-        <v>1.040167085850226</v>
+        <v>1.021298785168592</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3949,19 +3970,19 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.089975308641975</v>
+      </c>
+      <c r="C116">
         <v>1.018403232852774</v>
       </c>
-      <c r="C116">
+      <c r="D116">
+        <v>1.011811773671175</v>
+      </c>
+      <c r="E116">
         <v>0.9638030888030887</v>
       </c>
-      <c r="D116">
-        <v>1.089975308641975</v>
-      </c>
-      <c r="E116">
-        <v>1.011811773671175</v>
-      </c>
       <c r="F116">
-        <v>1.030564811844836</v>
+        <v>1.010377256670615</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3975,19 +3996,19 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.117333333333333</v>
+      </c>
+      <c r="C117">
         <v>1.033202271734382</v>
       </c>
-      <c r="C117">
+      <c r="D117">
+        <v>1.01505048580682</v>
+      </c>
+      <c r="E117">
         <v>0.9642857142857143</v>
       </c>
-      <c r="D117">
-        <v>1.117333333333333</v>
-      </c>
-      <c r="E117">
-        <v>1.01505048580682</v>
-      </c>
       <c r="F117">
-        <v>1.043259617939667</v>
+        <v>1.018771998892048</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -4001,25 +4022,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.033202271734382</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="C118">
-        <v>0.9642857142857143</v>
+        <v>1.051823940585408</v>
       </c>
       <c r="D118">
-        <v>1.117333333333333</v>
+        <v>1.025973201244681</v>
       </c>
       <c r="E118">
-        <v>1.01505048580682</v>
+        <v>0.9727316602316602</v>
       </c>
       <c r="F118">
-        <v>1.043259617939667</v>
+        <v>1.026818229742268</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="C119">
+        <v>1.042376583660987</v>
+      </c>
+      <c r="D119">
+        <v>1.016003048199657</v>
+      </c>
+      <c r="E119">
+        <v>0.9682673745173745</v>
+      </c>
+      <c r="F119">
+        <v>1.017947085879482</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="C120">
+        <v>1.040792922673657</v>
+      </c>
+      <c r="D120">
+        <v>1.038928049787261</v>
+      </c>
+      <c r="E120">
+        <v>0.9639237451737452</v>
+      </c>
+      <c r="F120">
+        <v>1.026899099068197</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="C121">
+        <v>1.051660113586719</v>
+      </c>
+      <c r="D121">
+        <v>1.031117038166</v>
+      </c>
+      <c r="E121">
+        <v>0.9638030888030887</v>
+      </c>
+      <c r="F121">
+        <v>1.02275425627127</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="C122">
+        <v>1.024137177806903</v>
+      </c>
+      <c r="D122">
+        <v>1.005588366037975</v>
+      </c>
+      <c r="E122">
+        <v>0.9461872586872587</v>
+      </c>
+      <c r="F122">
+        <v>1.006154708485266</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="C123">
+        <v>1.022662734818698</v>
+      </c>
+      <c r="D123">
+        <v>1.011684765352131</v>
+      </c>
+      <c r="E123">
+        <v>0.9251930501930502</v>
+      </c>
+      <c r="F123">
+        <v>1.00953394898736</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C124">
+        <v>1.003003494975972</v>
+      </c>
+      <c r="D124">
+        <v>1.004191274528482</v>
+      </c>
+      <c r="E124">
+        <v>0.9235038610038609</v>
+      </c>
+      <c r="F124">
+        <v>1.005042087637021</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="C125">
+        <v>1.017529488859764</v>
+      </c>
+      <c r="D125">
+        <v>1.016574585635359</v>
+      </c>
+      <c r="E125">
+        <v>0.924831081081081</v>
+      </c>
+      <c r="F125">
+        <v>1.018063636209005</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="C126">
+        <v>1.00698995194408</v>
+      </c>
+      <c r="D126">
+        <v>1.023496539023306</v>
+      </c>
+      <c r="E126">
+        <v>0.9074565637065637</v>
+      </c>
+      <c r="F126">
+        <v>1.013628494743696</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="C127">
+        <v>1.00611620795107</v>
+      </c>
+      <c r="D127">
+        <v>1.011684765352131</v>
+      </c>
+      <c r="E127">
+        <v>0.9025096525096525</v>
+      </c>
+      <c r="F127">
+        <v>1.019517987320144</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4131,18 +4386,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4174,172 +4429,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>56.57</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K2">
-        <v>9.050000000000001</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L2">
-        <v>27.19</v>
-      </c>
-      <c r="M2">
-        <v>51.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>49.44</v>
+        <v>8.618300437927246</v>
       </c>
       <c r="K3">
-        <v>3.39</v>
+        <v>53.42950057983398</v>
       </c>
       <c r="L3">
-        <v>-7.1</v>
-      </c>
-      <c r="M3">
-        <v>-7.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>51.511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>39.53</v>
+        <v>6.168000221252441</v>
       </c>
       <c r="K4">
-        <v>3.11</v>
+        <v>45.57669830322266</v>
       </c>
       <c r="L4">
-        <v>16.99</v>
-      </c>
-      <c r="M4">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.2202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>46.01</v>
+        <v>3.147300004959106</v>
       </c>
       <c r="K5">
-        <v>6.21</v>
+        <v>44.04880142211914</v>
       </c>
       <c r="L5">
-        <v>20.56</v>
-      </c>
-      <c r="M5">
-        <v>16.22</v>
+        <v>-7.7804</v>
       </c>
     </row>
   </sheetData>
@@ -4357,19 +4597,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4377,19 +4617,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4397,19 +4637,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4417,19 +4657,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4437,19 +4677,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4457,19 +4697,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4477,19 +4717,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4497,19 +4737,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4517,19 +4757,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4537,19 +4777,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4557,19 +4797,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4577,19 +4817,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4597,19 +4837,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4617,19 +4857,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4637,19 +4877,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4657,19 +4897,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4677,19 +4917,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4697,19 +4937,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4717,19 +4957,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4737,19 +4977,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4757,19 +4997,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +5019,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4787,98 +5027,142 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>181</v>
       </c>
-      <c r="C9" t="s">
-        <v>93</v>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
